--- a/K/instagram_crawling.xlsx
+++ b/K/instagram_crawling.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,27 +437,27 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Number</t>
+          <t>Contents</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Dontent</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Like</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Like</t>
+          <t>Place</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Place</t>
+          <t>Tag</t>
         </is>
       </c>
     </row>
@@ -467,27 +467,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>뭔가 엄청 많이 먹었던 하루.. #원흥양동이 #달빛오징어광어원흥점 #술담 그리고 편의점앞에서 와인과 맥주 마시다가 너무 졸려서 귀가함. 🥱😴😴체력이 예전 같지 않네요. 😥😩😭크레망이 잘 익어도 복합미는 샴페인만 못하고 영한 떼땡져, 파이퍼 하이직보다 잘익은 그롱네가 훨씬 맛있었음. 다른 와인들은 그냥 예상했었던 맛이 그대로 나오는 느낌이었습니다. 😏🤭..#와인고양이</t>
+          <t>⠀⠀🔹녹동양조장 with어떤하루⠀▪️고유 [고흥유자주] 12.0가벼운 목 넘김과 상큼하고 부드러운 유자의 향, 막걸리의 맑은 윗부분의 맛이 살살 나기도 했고 고흥의 재료를 담아 만들어서 좀 더 맛있는 것 같기도 했다. 파스타뿐만 아니라 식후 디저트와도 잘 어울릴 것 같다는 생각을 해봤다.술담화에서 첨부해 주신 레시피를 따라 탄산수와 얼음 그리고 고흥유자주를 섞어 마셔봤는데 산뜻한 샴페인을 마시는 것 같은 느낌과 알코올의 부담이 줄어드는 것은 좋았지만 유자의 향이 약해지는 게 조금 아쉬웠다. 탄산수를 넣고 싶다면 정말 조금만 넣는 게 좋을 것 같다.⠀🔸술담화 8월 담화박스를 통해서 접하게 된 전통주, 담화박스 안에 어울리는 안주까지 적어 주셔서 국가비님의 원팬 레시피를 따라 집에 있는 재료를 넣어서 오일 파스타를 만들었다.⠀▫️#술담화 #어떤하루 #국가비 #고흥유자주 #오일파스타 #술안주 #술한잔 #술상 #행궁동맛집 #행궁동 #집콕 #집콕놀이 #집들이음식 #집콕중 #안주맛집</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2020-07-04</t>
+          <t>2020-09-10</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>op postsRecent posts from # 술담 are currently hidden because the community has reported some content that may not meet Instagram's community guidelines. Learn moreSearchAboutHelpPressAPIJobsPrivacyTermsLocationsTop AccountsHashtagsLanguageAfrikaansČeštinaDanskDeutschΕλληνικάEnglishEspañol (España)EspañolSuomiFrançaisBahasa IndonesiaItaliano日本語한국어Bahasa MelayuNorskNederlandsPolskiPortuguês (Brasil)Português (Portugal)РусскийSvenskaภาษาไทยFilipinoTürkçe中文(简体)中文(台灣)বাংলাગુજરાતીहिन्दीHrvatskiMagyarಕನ್ನಡമലയാളംमराठीनेपालीਪੰਜਾਬੀසිංහලSlovenčinaதமிழ்తెలుగుTiếng Việt中文(香港)БългарскиFrançais (Canada)RomânăСрпскиУкраїнська© 2020 Instagram from Faceboo</t>
+          <t>like</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>경기도 고양시 덕양구 삼송동</t>
+          <t>Suwon</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['#원흥양동이', '#달빛오징어광어원흥점', '#술담', '#와인고양이']</t>
+          <t>['#술담화', '#어떤하루', '#국가비', '#고흥유자주', '#오일파스타', '#술안주', '#술한잔', '#술상', '#행궁동맛집', '#행궁동', '#집콕', '#집콕놀이', '#집들이음식', '#집콕중', '#안주맛집']</t>
         </is>
       </c>
     </row>
@@ -497,20 +497,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>🍂</t>
+          <t>🎊지난주 주말🎊⠀담화맨이 제주도에서 백종원 선생님을 만나고 왔습니다!⠀맛남의 광장 [제주도편] 보신분!🙋🏻‍♂️🍊</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2018-09-20</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>op postsRecent posts from # 술담 are currently hidden because the community has reported some content that may not meet Instagram's community guidelines. Learn moreSearchAboutHelpPressAPIJobsPrivacyTermsLocationsTop AccountsHashtagsLanguageAfrikaansČeštinaDanskDeutschΕλληνικάEnglishEspañol (España)EspañolSuomiFrançaisBahasa IndonesiaItaliano日本語한국어Bahasa MelayuNorskNederlandsPolskiPortuguês (Brasil)Português (Portugal)РусскийSvenskaภาษาไทยFilipinoTürkçe中文(简体)中文(台灣)বাংলাગુજરાતીहिन्दीHrvatskiMagyarಕನ್ನಡമലയാളംमराठीनेपालीਪੰਜਾਬੀසිංහලSlovenčinaதமிழ்తెలుగుTiếng Việt中文(香港)БългарскиFrançais (Canada)RomânăСрпскиУкраїнська© 2020 Instagram from Faceboo</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+          <t>5 like</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Jeju</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>[]</t>
@@ -523,27 +527,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>_어제 마신 맥주캔은 캔입 날짜와 함께 covid 셧다운으로부터 며칠째인지도 스탬프해서 피식- 웃었다 로컬 소규모 브루어리가 많아지면서 신선하고 다양한 맥주를 맛보게 되었는데 마이크헤스는 그 중에서도 내가 몇명에게 홍보를 했는지... 정말 맛있다 단 도수도 좀 있고 쓴맛이 강한 ipa라 시원시원시원해졌는지 세번쯤 확인하고 목이 마를 때 주르륵 마시는 게 좋겠다 5월4일이라니 까마득한데 맥주로서는 신선하구나😶_아니 왜 이 포스트를 see translation 누르면“i had beer a lot”만 반복되는 것이냐....😶_아침부터 #술담</t>
+          <t>이번달 담화박스 속 꿀샘16 모두 잘 받으셨나요? 🥰꿀샘16 맛있게 마시는 꿀팁🌝1. 마시기 30분전 냉동고에 넣어 아주 차게 마신다!2. 안주는 크랜베리가 들어간 견과류 추천❤️3. 사랑하는 사람과 함께한 식사 후에 마무리로 즐긴다#술샘 #양조장 #우리술 #전통주 #술담화 #담화박스 #술 #술스타그램 #식전주 #식후주 #꿀 #리큐르 #꿀샘16 #꿀술 #꿀소주</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>2020-08-20</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>op postsRecent posts from # 술담 are currently hidden because the community has reported some content that may not meet Instagram's community guidelines. Learn moreSearchAboutHelpPressAPIJobsPrivacyTermsLocationsTop AccountsHashtagsLanguageAfrikaansČeštinaDanskDeutschΕλληνικάEnglishEspañol (España)EspañolSuomiFrançaisBahasa IndonesiaItaliano日本語한국어Bahasa MelayuNorskNederlandsPolskiPortuguês (Brasil)Português (Portugal)РусскийSvenskaภาษาไทยFilipinoTürkçe中文(简体)中文(台灣)বাংলাગુજરાતીहिन्दीHrvatskiMagyarಕನ್ನಡമലയാളംमराठीनेपालीਪੰਜਾਬੀසිංහලSlovenčinaதமிழ்తెలుగుTiếng Việt中文(香港)БългарскиFrançais (Canada)RomânăСрпскиУкраїнська© 2020 Instagram from Faceboo</t>
+          <t>like</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Los Angeles, California</t>
+          <t>농업회사법인 주)술샘</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['#술담']</t>
+          <t>['#술샘', '#양조장', '#우리술', '#전통주', '#술담화', '#담화박스', '#술', '#술스타그램', '#식전주', '#식후주', '#꿀', '#리큐르', '#꿀샘16', '#꿀술', '#꿀소주']</t>
         </is>
       </c>
     </row>
@@ -553,27 +557,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>자주못봐도어제본듯❣</t>
+          <t>엽이가 신청한 술정기구독 😋이거 꽤 설레이는데?다음달은 뭘까 🤤-한달에 한번주제에 맞춰서 술을 보내주는데이 술의 유래, 어울리는 안주 등등 알려줘요!그저 마시기만 했던 술을이렇게 구독해보니남편이랑 하나하나 음미하면서알아가는 재미가 있더라구요 😉(가격도 좀더 착하구요~)-#애주가부부#술담화 #찾아오는인생술#술정기구독 #🍾🍶🍷🍸🍹🍺🥂</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2018-09-25</t>
+          <t>2020-06-01</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>op postsRecent posts from # 술담 are currently hidden because the community has reported some content that may not meet Instagram's community guidelines. Learn moreSearchAboutHelpPressAPIJobsPrivacyTermsLocationsTop AccountsHashtagsLanguageAfrikaansČeštinaDanskDeutschΕλληνικάEnglishEspañol (España)EspañolSuomiFrançaisBahasa IndonesiaItaliano日本語한국어Bahasa MelayuNorskNederlandsPolskiPortuguês (Brasil)Português (Portugal)РусскийSvenskaภาษาไทยFilipinoTürkçe中文(简体)中文(台灣)বাংলাગુજરાતીहिन्दीHrvatskiMagyarಕನ್ನಡമലയാളംमराठीनेपालीਪੰਜਾਬੀසිංහලSlovenčinaதமிழ்తెలుగుTiếng Việt中文(香港)БългарскиFrançais (Canada)RomânăСрпскиУкраїнська© 2020 Instagram from Faceboo</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Gwangju, South Korea</t>
-        </is>
-      </c>
+          <t>like</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['#애주가부부', '#술담화', '#찾아오는인생술', '#술정기구독', '#🍾🍶🍷🍸🍹🍺🥂']</t>
         </is>
       </c>
     </row>
@@ -583,23 +583,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1차가 횟집이면 2차는 중국집이지#부산맛집 #남포동맛집 #남포동중국집#먹스타그램 #남포동술집 #중식주점-상호명 : #조아#동파육 23.0#볶음밥 4.0#물만두 4.0#소주 2 8.0그래서 39.000원-우리나라의 오래된 #술담 에 그런말이 있다 1차가 횟집이면 2차는 중국집에 가야한다일에는 순서가 있다는 말과 일맥상통 하는데네이버사전에 찾아보면 자세하게 나올껄??-이집 동파육 맛있는데 메뉴판에는 안적혀있다사장님이 자기만 먹고 싶어서 많이 안파시려고가게 뒤에 조그만하게 써놓고 찾는사람만 준다하지만 동파육을 갈구하는 돼지는 사정안봐줌-나는 1차에서 배가 찢어지게 먹고 와서 그런지동파육만 먹을랬는데 먹다보니 너무 맛있어서내 앞에는 물만두도 있고 새우볶음밥도 있더라-우리나라의 오래된 #술담 에 그런말이 있다 2차가 중국집 이면 3차는 카페에 가야한다일에는 순서가 있다는 말과 일맥상통 하는데네이버사전에 찾아보면 자세하게 나올껄??-#남포동을거니는식탐없는소식가#nampodong #busan #southkorea#韓国 #韓国旅行 #釜山 #南浦洞</t>
+          <t>🎁1년 구독 기념 전용잔🎁⠀2020년 첫 번째 프로젝트이자 술담화의 첫 번째 오피셜 굿즈입니다.(술담화에서 직접 디자인 했답니다🙆🏻‍♀️!)⠀술을 마실 때 잔을 빼놓을 수 없잖아요! 그런 의미에서 1년 동안 담화박스를 구독해주신 분들에게 아담한 술잔을 선물했습니다❣⠀모두 황금 연휴 알차게 보내세요! 늘 감사합니다🙏⠀#술담화 #이천도자기공방 #단고재 #전용잔 #술잔 #술담화전용잔 #술담화굿즈 #1년구독이라뇨 #감사합니다!</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2020-05-01</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>op postsRecent posts from # 술담 are currently hidden because the community has reported some content that may not meet Instagram's community guidelines. Learn moreSearchAboutHelpPressAPIJobsPrivacyTermsLocationsTop AccountsHashtagsLanguageAfrikaansČeštinaDanskDeutschΕλληνικάEnglishEspañol (España)EspañolSuomiFrançaisBahasa IndonesiaItaliano日本語한국어Bahasa MelayuNorskNederlandsPolskiPortuguês (Brasil)Português (Portugal)РусскийSvenskaภาษาไทยFilipinoTürkçe中文(简体)中文(台灣)বাংলাગુજરાતીहिन्दीHrvatskiMagyarಕನ್ನಡമലയാളംमराठीनेपालीਪੰਜਾਬੀසිංහලSlovenčinaதமிழ்తెలుగుTiếng Việt中文(香港)БългарскиFrançais (Canada)RomânăСрпскиУкраїнська© 2020 Instagram from Faceboo</t>
+          <t>like</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['#부산맛집', '#남포동맛집', '#남포동중국집', '#먹스타그램', '#남포동술집', '#중식주점-상호명', '#조아', '#동파육', '#볶음밥', '#물만두', '#소주', '#술담', '#술담', '#남포동을거니는식탐없는소식가', '#nampodong', '#busan', '#southkorea', '#韓国', '#韓国旅行', '#釜山', '#南浦洞']</t>
+          <t>['#술담화', '#이천도자기공방', '#단고재', '#전용잔', '#술잔', '#술담화전용잔', '#술담화굿즈', '#1년구독이라뇨', '#감사합니다!']</t>
         </is>
       </c>
     </row>
@@ -609,23 +609,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>술이 술술시험기간 꿀잼#창원#창원대#술담#맞팔#소통##일상#데일리#일탈#댓글#좋아요</t>
+          <t>우리나라도 이제 진 생산국이진🤩국내 최초 크래프트 진 "부자진 𝔹𝕌𝕁𝔸 𝔾𝕀ℕ 𝕊𝔼𝕆𝕌𝕃"⠀안녕하세요! 오늘 소개할 술은 5월에 갓 탄생한 국내산 프리미엄 크래프트 진(Gin) "부자진"입니다. 경기도 양평에서 소량으로 생산되고 있는 "부자진"은 해외 수입 진들과 달리 100% 국내에서 재배되는 재료들만 들어간다는 것이 큰 특징입니다. 솔잎과 쑥, 그리고 헛개와 한라봉 등을 포함한 15가지 한국 고유의 맛과 향을 가진 재료들을 사용해 만들어 대한민국의 고유의 맛과 향을 담고 있습니다. (최고🤭) "부자진"이란 이름은 아버지와 아들을 뜻하는 '父子'에서 유래하였는데요. 허브농장을 운영하시는 아버지와 영국에서 증류기술을 익혀온 아들이 함께 만드는 하나의 예술작품입니다 :)⠀"부자진"의 맛은 한마디로 설명하기 어려울만큼 다양한 맛과 풍미가 느껴집니다. 처음에는 진 특유의 가볍고 신선한 허브의 향과 맛이 느껴지면서 상쾌한 느낌을 주는데요. 그 이후에는 복합적인 맛(쑥, 헛개)이 입안을 맴돌다가 마지막에는 양쪽 볼과 입안 전체의 씁쓸한 맛으로 끝나요. 어떤 맛일지 상상이 가실까요? ⠀칵테일로 즐겨지는 술인만큼 집에 한병 구비해두고 다양한 레시피를 시도해보면 좋을 것 같아요! 스트레이트, 온더락, 진베이스 칵테일로 기분에 따라, 취향에 따라 마셔보는 것을 추천드려요.우리나라에서 생산되는 재료들로만 만든 진, "부자진 𝔹𝕌𝕁𝔸 𝔾𝕀ℕ 𝕊𝔼𝕆𝕌𝕃" 의 세계진출을 술담화가 응원합니다★🛍"부자진"에 대한 자세한 정보 및 구매는 🔗프로필 링크🔗 &amp; 담화마켓 (sooldamhwa.com/shop)에서 가능해요.🙇🏻‍♂️</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2018-10-07</t>
+          <t>2020-08-26</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>op postsRecent posts from # 술담 are currently hidden because the community has reported some content that may not meet Instagram's community guidelines. Learn moreSearchAboutHelpPressAPIJobsPrivacyTermsLocationsTop AccountsHashtagsLanguageAfrikaansČeštinaDanskDeutschΕλληνικάEnglishEspañol (España)EspañolSuomiFrançaisBahasa IndonesiaItaliano日本語한국어Bahasa MelayuNorskNederlandsPolskiPortuguês (Brasil)Português (Portugal)РусскийSvenskaภาษาไทยFilipinoTürkçe中文(简体)中文(台灣)বাংলাગુજરાતીहिन्दीHrvatskiMagyarಕನ್ನಡമലയാളംमराठीनेपालीਪੰਜਾਬੀසිංහලSlovenčinaதமிழ்తెలుగుTiếng Việt中文(香港)БългарскиFrançais (Canada)RomânăСрпскиУкраїнська© 2020 Instagram from Faceboo</t>
+          <t>like</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['#창원', '#창원대', '#술담', '#맞팔', '#소통', '#일상', '#데일리', '#일탈', '#댓글', '#좋아요']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -635,23 +635,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>비오니깐 술담!! #술담 #신방점 #술각 #비온다 ..........#천안 #피곤해 #출근룩 #술스타그램 #먹스타그램 #맛스타그램 #회스타그램 #데일리룩 #데일리 #daily #쌍용동 #신방동 #용곡동 #두정동 #신부동 #선팔하면맞팔</t>
+          <t>-불금에 임하는 자세 🤩전통주 술담화 박스와 함께 7월 마무리---@sooldamhwa #술담화#담화박스#전통주구독#홈술#홈캠핑#베란다캠핑#베란다포차</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2016-10-07</t>
+          <t>2020-07-31</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>op postsRecent posts from # 술담 are currently hidden because the community has reported some content that may not meet Instagram's community guidelines. Learn moreSearchAboutHelpPressAPIJobsPrivacyTermsLocationsTop AccountsHashtagsLanguageAfrikaansČeštinaDanskDeutschΕλληνικάEnglishEspañol (España)EspañolSuomiFrançaisBahasa IndonesiaItaliano日本語한국어Bahasa MelayuNorskNederlandsPolskiPortuguês (Brasil)Português (Portugal)РусскийSvenskaภาษาไทยFilipinoTürkçe中文(简体)中文(台灣)বাংলাગુજરાતીहिन्दीHrvatskiMagyarಕನ್ನಡമലയാളംमराठीनेपालीਪੰਜਾਬੀසිංහලSlovenčinaதமிழ்తెలుగుTiếng Việt中文(香港)БългарскиFrançais (Canada)RomânăСрпскиУкраїнська© 2020 Instagram from Faceboo</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+          <t>like</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>운정 우리집</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['#술담', '#신방점', '#술각', '#비온다', '#천안', '#피곤해', '#출근룩', '#술스타그램', '#먹스타그램', '#맛스타그램', '#회스타그램', '#데일리룩', '#데일리', '#daily', '#쌍용동', '#신방동', '#용곡동', '#두정동', '#신부동', '#선팔하면맞팔']</t>
+          <t>['#술담화', '#담화박스', '#전통주구독', '#홈술', '#홈캠핑', '#베란다캠핑', '#베란다포차']</t>
         </is>
       </c>
     </row>
@@ -661,23 +665,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>#학동#술담#제육볶음#드디어방문#깔끔함#맛도좋고#축구를본건지게임을한건지</t>
+          <t>7월의 #전통주 🍶와 &lt;#아무튼술&gt;📖.#술담화.#우리술.#능이주.#우렁이쌀청주.#가야곡왕주.#녹파주.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2018-06-19</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>op postsRecent posts from # 술담 are currently hidden because the community has reported some content that may not meet Instagram's community guidelines. Learn moreSearchAboutHelpPressAPIJobsPrivacyTermsLocationsTop AccountsHashtagsLanguageAfrikaansČeštinaDanskDeutschΕλληνικάEnglishEspañol (España)EspañolSuomiFrançaisBahasa IndonesiaItaliano日本語한국어Bahasa MelayuNorskNederlandsPolskiPortuguês (Brasil)Português (Portugal)РусскийSvenskaภาษาไทยFilipinoTürkçe中文(简体)中文(台灣)বাংলাગુજરાતીहिन्दीHrvatskiMagyarಕನ್ನಡമലയാളംमराठीनेपालीਪੰਜਾਬੀසිංහලSlovenčinaதமிழ்తెలుగుTiếng Việt中文(香港)БългарскиFrançais (Canada)RomânăСрпскиУкраїнська© 2020 Instagram from Faceboo</t>
+          <t>like</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['#학동', '#술담', '#제육볶음', '#드디어방문', '#깔끔함', '#맛도좋고', '#축구를본건지게임을한건지']</t>
+          <t>['#전통주', '#아무튼술&gt;📖.', '#술담화.', '#우리술.', '#능이주.', '#우렁이쌀청주.', '#가야곡왕주.', '#녹파주.']</t>
         </is>
       </c>
     </row>
@@ -687,27 +691,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>#일상 #소통 #맞팔 #선팔 #좋아요 #댓글 #쌍용동 #천안#육회 #술담 #쌍용맛집 #통기타 #불토 쌍용으로 이사오고 만든 단골집친구들이 놀러오면 항상 이곳에 온다통기타치면서 노래하는 이모와동네술집과 같은 분위기김치찌개와 육회는 고정안주 인듯보글보글 연기 필터임</t>
+          <t>오늘도 수분 오지게 빼고 왔지만 턱별하게 전통주로 수분좀 보충할렵니다정은씨가 직접해준 오리버섯볶음과 함께하겠습니다 ❤정은씨 감사합니다 🙈#애인 #야식 #술담화 #전통주 #녹파주 #운동 #운동하는커플 #수분보충(?) #오리버섯볶음</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2017-04-08</t>
+          <t>2020-08-25</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>op postsRecent posts from # 술담 are currently hidden because the community has reported some content that may not meet Instagram's community guidelines. Learn moreSearchAboutHelpPressAPIJobsPrivacyTermsLocationsTop AccountsHashtagsLanguageAfrikaansČeštinaDanskDeutschΕλληνικάEnglishEspañol (España)EspañolSuomiFrançaisBahasa IndonesiaItaliano日本語한국어Bahasa MelayuNorskNederlandsPolskiPortuguês (Brasil)Português (Portugal)РусскийSvenskaภาษาไทยFilipinoTürkçe中文(简体)中文(台灣)বাংলাગુજરાતીहिन्दीHrvatskiMagyarಕನ್ನಡമലയാളംमराठीनेपालीਪੰਜਾਬੀසිංහලSlovenčinaதமிழ்తెలుగుTiếng Việt中文(香港)БългарскиFrançais (Canada)RomânăСрпскиУкраїнська© 2020 Instagram from Faceboo</t>
+          <t>like</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>천안 쌍용동 어딘가..</t>
+          <t>독립문</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['#일상', '#소통', '#맞팔', '#선팔', '#좋아요', '#댓글', '#쌍용동', '#천안', '#육회', '#술담', '#쌍용맛집', '#통기타', '#불토']</t>
+          <t>['#애인', '#야식', '#술담화', '#전통주', '#녹파주', '#운동', '#운동하는커플', '#수분보충(?)', '#오리버섯볶음']</t>
         </is>
       </c>
     </row>
@@ -717,27 +721,2401 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>⠀달리고~달리고~🏇🏻🏇🏻살리고~살리고~🤹🏻‍♀️🤹🏻‍♀️⠀⠀⠀#일산맛집#백석#백석맛집#스타램#양갈비#새우완탕#마늘고추밥#2차#술담#계란말이서비스#맛저#운동해야해🤸🏻🤸🏻‍♀️#않이근데#이시국에</t>
+          <t>술을 얼려 먹으면 무슨 맛이 날까?🤔무더운 날 차갑게 마시는 맥주, 온더락으로 마시는 각종 위스키 등 시원하게 마셨을 때 매력이 더욱 증가하는 술들이 많습니다. 그렇다면 술을 얼려 먹으면 무슨 맛이 날까요?🧊도수가 낮은 술과 높은 술로 나눠 간략히 설명드리고자 합니다🧑‍🏫⬆️ 에탄올의 어는 점은 영하 114도! 도수가 높은 술은 가정용 냉장고로 얼렸을 때 고체로 얼지 않고 점성이 큰 액체 상태로 머물게 됩니다. 얼린 술은 알코올의 향이 약해져 목넘김이 한층 부드러워집니다. 알코올의 향이 약해진만큼 상대적으로 술 본연의 풍미를 더욱 잘 느낄 수 있다는 장점도 있습니다.⬇️ 하지만 도수가 낮은 술은 냉동실에 얼렸을 때 고체로 얼게 됩니다. 당분이 얼음에 갇힌 나머지 맛과 향이 약해진다는 단점이 있습니다.도수와 향이 센 전통주, 단독으로 마시기 부담스럽다면 냉동실에 6시간 정도 두고 즐겨보시는 것은 어떨까요?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2020-03-20</t>
+          <t>2020-09-14</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>op postsRecent posts from # 술담 are currently hidden because the community has reported some content that may not meet Instagram's community guidelines. Learn moreSearchAboutHelpPressAPIJobsPrivacyTermsLocationsTop AccountsHashtagsLanguageAfrikaansČeštinaDanskDeutschΕλληνικάEnglishEspañol (España)EspañolSuomiFrançaisBahasa IndonesiaItaliano日本語한국어Bahasa MelayuNorskNederlandsPolskiPortuguês (Brasil)Português (Portugal)РусскийSvenskaภาษาไทยFilipinoTürkçe中文(简体)中文(台灣)বাংলাગુજરાતીहिन्दीHrvatskiMagyarಕನ್ನಡമലയാളംमराठीनेपालीਪੰਜਾਬੀසිංහලSlovenčinaதமிழ்తెలుగుTiếng Việt中文(香港)БългарскиFrançais (Canada)RomânăСрпскиУкраїнська© 2020 Instagram from Faceboo</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>백석동</t>
-        </is>
-      </c>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['#일산맛집', '#백석', '#백석맛집', '#스타램', '#양갈비', '#새우완탕', '#마늘고추밥', '#2차', '#술담', '#계란말이서비스', '#맛저', '#운동해야해🤸🏻🤸🏻\u200d♀️', '#않이근데', '#이시국에']</t>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>내가 먹어본 사탕 중에 젤 맛없는게 홍삼캔디였다. 다 녹여먹고나면 웬지 할아버지가 된듯한 느낌까지.근데 담금주가 아니라 홍삼 추출액으로 이런 맛과 향을 내기란 그 비율 맞추기가 쉽지는 않았을듯.살짝 혀끝이 쎄한것이 의외의 맛이다.바로 얼음 한움큼해서 콸콸꽐. 맛나다.건강해진다. ㅎㅎㅎ#괴산에 이런 술이 있었다니. 지역 특산주란다. #홍삼명주 #자연과인삼 #술담화 #담화박스</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2020-09-14</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>['#괴산에', '#홍삼명주', '#자연과인삼', '#술담화', '#담화박스']</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>📝‘매달 술·과자·반찬이 집으로’… 구독경제 확대신종 코로나바이러스 감염증(코로나19)의 여파로 온라인 쇼핑규모가 크게 증가했다.하나금융경영연구소가 올해 1분기 전체 카드 매출액과 매출 건수를 분석한 ‘코로나19가 가져온 소비형태의 변화’ 보고서에 따르면 인터넷쇼핑 이용액은 지난해보다 41% 증가했으며 홈쇼핑 매출도 19% 늘어났다.G마켓·옥션을 운영하는 이베이코리아에 따르면 지난달 1일에서 지난 6일까지 당일배송 거래액도 전년 동기 대비 120% 늘어났다.온라인쇼핑시장의 성장과 함께 특정 상품을 정기적으로 받아보는 구독경제시장도 커지고 있다. 구독경제를 하는 상품도 속옷, 전통주, 생리대, 꽃, 수입 과자, 양말 등 점차 다양해지고 있다.데친 나물을 정기 배송해주는 서비스를 제공하는 ‘나물투데이’에 따르면 코로나19 사태로 사이트 온라인 접속량이 늘어 구독 서비스를 찾는 사람들이 코로나19 발생 이전보다 2배 가량 늘었다..[후략].#정기구독서비스 #구독서비스 #구독경제 #술담화 #나물투데이 #스낵트립 #코로나 #온라인쇼핑 #인터넷쇼핑 #정기구독 #구독 #술 #과자 #반찬 #배송 #나물 #소통 #선팔하면맞팔 #이데일리 #스냅타임 #빡침해소_청춘뉘우스</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2020-09-13</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ke</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>이데일리</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>['#정기구독서비스', '#구독서비스', '#구독경제', '#술담화', '#나물투데이', '#스낵트립', '#코로나', '#온라인쇼핑', '#인터넷쇼핑', '#정기구독', '#구독', '#술', '#과자', '#반찬', '#배송', '#나물', '#소통', '#선팔하면맞팔', '#이데일리', '#스냅타임', '#빡침해소_청춘뉘우스']</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>#술담화 #술담화8월 #전통주 #전통주구독 #홍삼명주 #고흥유자주 #꿀샘16 #술스타그램 #korealiquor</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2020-09-13</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ke</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>['#술담화', '#술담화8월', '#전통주', '#전통주구독', '#홍삼명주', '#고흥유자주', '#꿀샘16', '#술스타그램', '#korealiquor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>#술담화 #술담화8월 #전통주 #전통주구독 #홍삼명주 #고흥유자주 #꿀샘16 #지인들과함께 #술스타그램 #koreanliquor</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2020-09-13</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>['#술담화', '#술담화8월', '#전통주', '#전통주구독', '#홍삼명주', '#고흥유자주', '#꿀샘16', '#지인들과함께', '#술스타그램', '#koreanliquor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>❤︎ 𝟸𝟶𝟸𝟶𝟶𝟾𝟸𝟿𝗦𝘄𝗲𝗲𝘁 𝗰𝗶𝘁𝗿𝗼𝗻 🍋 #고흥유자주08 @eotteonharu_official 유자가 유명한 고흥에서 생산되는 유자주30년 이상 된 고목의 유자로 만들어지는 프리미엄약주이지만내 입맛이 너무 저렴한 탓일까몇 년 전 유행하던 과일소주가 생각난다그중에도 즐겨마시던 시원자몽이 생각나는 맛이랄까도수는 8도로 낮은 편이고얼음을 띄워서 마시니 술술 잘 들어갔다유자향이 참 좋았다</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2020-09-13</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>['#고흥유자주08']</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>#쇼핑#술담화 에서 추석맞이 할인하여 급 쇼핑겨울소주를 빼고 나머지는 맛을 아는 아이들#와이프최애 #토박이한산소곡주 #술공방 #겨울소주 #신례명주 #전통주 #더사고싶었지만자제했음✌️</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2020-09-13</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>['#쇼핑', '#술담화', '#와이프최애', '#토박이한산소곡주', '#술공방', '#겨울소주', '#신례명주', '#전통주', '#더사고싶었지만자제했음✌️']</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>한동안 집에서 술마실 일이 없어 잊고있었지 모야 간만에 집콕예정이라 생각난김에 미리 주문해놓구 토욜 낮부터 달려버리기😆😆.역시 이 대창에서 나오는 눅진하고 찐한국물은 넘나 술을 부르는 맛이죠👏👏분모자 납작당면은 첨먹어보는데 완전 떡같은 느낌이랄까 쫄깃쫄깃하니 그냥 분모자보다 이게 더 내스탈👍.유튭에서 핫했던 실비김치도 시켜봤는데, 오?? 생각보다 더 맛있쟈나 진짜 맛있는 김장김치가 되게 매운느낌이랄까양념 좀 걷어내고 먹으니 엄청 막 맵지도 않아서 밥  한술위에 얹어먹으니 진짜 대존맛이여요건 다먹으면 또 시켜먹어야쥐😋😋.....#문현전통한우곱창#곱창전골#곱도리탕#대창#곱창#분모자당면#실비김치#술담화#홍삼명주#불금#주말#집콕#먹스타그램#맛스타그램#술스타그램#집스타그램#먹방#일상#데일리</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2020-09-13</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>['#문현전통한우곱창', '#곱창전골', '#곱도리탕', '#대창', '#곱창', '#분모자당면', '#실비김치', '#술담화', '#홍삼명주', '#불금', '#주말', '#집콕', '#먹스타그램', '#맛스타그램', '#술스타그램', '#집스타그램', '#먹방', '#일상', '#데일리']</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>#혼술 #고흥유자주 #술담화 남은 마지막 8월 술담화 술. 여유가 나서 마셔봄. 기대했던 벌꿀주나 별로 기대안한 홍삼발효주보다 더 나은듯.유자의 새콤달콤한 맛과 부담없이 마시기좋은 낮은 도수(8도) 이런게 여유아닐까.같이 마실 사람이 없는게 아쉽구만.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2020-09-12</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>['#혼술', '#고흥유자주', '#술담화']</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>.[전통주]🍶서울의 밤🍶도수: 25%🍶양조장: 더한주류.향 : 매실향과 알콜향 적은 증류주향.황매실을 통한 1차 증류 그리고 노간주열매 벌꿀로 2차 증류한 술이라고 적혀있는데진의 풍미는 마셔야 약간 느껴질뿐이고, 사실 프로모션할 때 진이라고 소개를 잘 하지 않는걸로 봐서는"진"보다는 그냥 전통주에 초점을 맞추고 술을 빚은게 아닐까 싶다..이 술은 매실향이 깔끔하고, 목넘김 좋고, 알콜향이 튀지 않아 좋다.그리고 일단 가격이 25%짜리 인데 5000원대 나름 나쁘지 않다..뭔가 명확한 특징이 애매해서 나쁘지 않은데 뭐라 적기가 좀 어렵다..#한국진 #서울의밤 #전통주 #DOUBLEDISTILLEDPLUMSPIRITS #술담화 #담화박스 #약주 #청주 #술리뷰 #마쉿어 #술스타그램 #남자의취미 #남취 #킹갓술담화</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2020-09-12</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>['#한국진', '#서울의밤', '#전통주', '#DOUBLEDISTILLEDPLUMSPIRITS', '#술담화', '#담화박스', '#약주', '#청주', '#술리뷰', '#마쉿어', '#술스타그램', '#남자의취미', '#남취', '#킹갓술담화']</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>.[전통주]🍶고유 (고흥 유자주)🍶도수 : 8%🍶양조장 : 녹동양조장.향 : 당연하겠지만 누룩향, 유자향이 전반적으로 지배한다.색 : 약간 탁한, 불투명한 유자의 노란색이 이쁘다..당연하게 누룩향, 유자향이 전반적으로 지배한다.적당한 감미 그리고 유자에서 기대할 수 있는 산미가 명확하다.맛 자체도 깔끔하게 떨어지지만, 그 혀의 백태가 끼는 느낌(?)은 남아있다.(사실 나는 그 끼는 맛 좋아한다.).가끔 한국 과일 전통주 중에는 소주에다가 과일청을 넣은 듯해서 일체감이 부족한 술들이 있는데내가 느끼기엔 술과 과실의 맛이 분리된, 즉 술에다가 유자청을 넣은 듯한 맛이 아니다.나름 일체감이 꽤나 느껴진다..물론 내 입맛은 항상 쌉쌀한 맛과 시트러스 향에 좋은 평을 주기 때문에 이런 시음 결과가 나온 것일 수도 있다..라벨과 병의 색감 조화가 내 눈에는 정말 세련되보인다..크림 새우, 탕수육에 먹으라는데 자몽 소스를 곁을인 오리스테이크에도 잘 어울릴 것 같고, 레몬크림새우에도 괜찮을 듯여기에 약간 탄산감이 있는 스파클링 고흥유자주도 좋을 것 같다..요 녀석은 나름 재구매 의향이 있다.나는 괜찮다..#고유 #전통주 #고흥유자주 #술담화 #담화박스 #약주 #청주 #술리뷰 #마쉿어 #술스타그램 #남자의취미 #남취 #킹갓술담화</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2020-09-12</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>['#고유', '#전통주', '#고흥유자주', '#술담화', '#담화박스', '#약주', '#청주', '#술리뷰', '#마쉿어', '#술스타그램', '#남자의취미', '#남취', '#킹갓술담화']</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ㆍ세계최초로 홍삼을 발효시켜 만든 술14도, 술 약한 나에게 딱이다#홍삼명주#충북괴산#전통주#전통주구독#구독#술담화</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2020-09-11</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ke</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>['#홍삼명주', '#충북괴산', '#전통주', '#전통주구독', '#구독', '#술담화']</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>좋은 책과 노트 선물 감사드립니다.#책 #일도사랑도일단한잔마시고 #드렁큰에디터 #술담화</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2020-09-11</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ke</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>['#책', '#일도사랑도일단한잔마시고', '#드렁큰에디터', '#술담화']</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>#등심득템#마블링#고흥유자주#술담화#콩불#백종원레시피#냉면</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2020-09-11</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>['#등심득템', '#마블링', '#고흥유자주', '#술담화', '#콩불', '#백종원레시피', '#냉면']</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>드디어 맛보는 8월의 #술담화 더울 때 먹었으면 더 좋았을 맛이긴하네 😋</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2020-09-11</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>['#술담화']</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>.처음 보자마자 너무나 맘에 들었던 #bottle 당장 사고 싶었지만.. 당분간 특별한 일 따위 없을 것 같아 일단 보류 했었지.. .허나, #술담화 세일 품목에 올라있는 걸 보고 바로 결제완료, 너무 늦지 않은 시점에 이 술을 나눌 수 있기를.. 😭.가장 좋아하는 도자기인 #백자철화끈무늬병 을 모티브로 한, #오미로제 #스파클링와인 #결 🍷🍾 #술스타그램 #와인스타그램</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2020-09-11</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>['#bottle', '#술담화', '#백자철화끈무늬병', '#오미로제', '#스파클링와인', '#결', '#술스타그램', '#와인스타그램']</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>양조장 방문은 언제나 즐거워💃Feat. #맹개술도가 #안동진맥소주지난 5월에 다녀온 맹개술도가 방문기입니다! 초여름, 수확을 앞두고 있는 밀밭은 그야말로 황금물결의 장관을 이루고 있었습니다✨✨맹개술도가의 박성호 대표님은 맹개마을을 처음 방문했을 때 맞닥뜨린 멋진 절경에 '무릎을 꿇었다'라고 말씀하셨는데요🧎맹개마을은 대부분이 밀밭으로 구성되어 있는 곳입니다. 수입산 밀에 밀려 찾아보기 힘든 우리밀이 이곳에는 지천으로 깔려 있습니다🤩그리고 3만평의 우리밀을 고스란히 담아낸 것이 안동 진맥소주입니다. 술 한 모금에 풍부한 통밀빵의 향기를 느끼고 두 모금에 타오르는 작열감을 느꼈습니다🔥 곡물의 구수하고 담백한 여운이 길게 이어져서 '마시는 빵🥐' 과 같다고 표현을 한 기억이 납니다.농부이자 양조인의 오랜 기다림, 노력, 땀방울이 모두 서린 진맥소주였습니다. 500여년 전부터 존재해온 이 술은 대표님의 인생에 큰 전환기를 맞이하게 해줬습니다. 이 술을 마실 우리에게는 어떤 선물을 선사해줄까요?🎁맹개술도가 방문기는 술담화 유튜브에서 시청해주세요! 인스타그램에서는 미처 다루지 못한 재미있는 내용이 너무나도 많답니다😊</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2020-09-11</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>['#맹개술도가', '#안동진맥소주지난']</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>#20200910 목요일 저녁밥상🍽닭가슴살볶음인데 아구찜 맛인데 맛있는 남편요리👏🏻</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2020-09-11</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>['#20200910']</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>#고흥유자주 #고유 #칵테일 #술 #술담화 #술레임 #전통주 #술레이는_전통주 #술스타그램 #인술타그램술담화 구독으로 받아본 전통주 고흥유자주얼음을 넣은 잔에 토닉워터 1: 고흥유자주 2 비율로 먹었다.유자향이 강하고 발효된 맛도 느껴졌다. 적당히 달아서 먹기는 좋았다. 과일주와 막걸리를 좋아한다면 괜찮을듯!내점수ㅡ맛ㅡ ●●●●●●●○○○가성비 ●●●●●●○○○○</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2020-09-10</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>['#고흥유자주', '#고유', '#칵테일', '#술', '#술담화', '#술레임', '#전통주', '#술레이는_전통주', '#술스타그램', '#인술타그램술담화']</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>.계획대로 2차ㅋ안주는 #순대곱창볶음 술은 #꿀샘16 #고흥유자주 .#술담화 #베란다주점 #광제보고싶네ㅋ #술스타그램 #부부술상</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2020-09-10</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>['#순대곱창볶음', '#꿀샘16', '#고흥유자주', '#술담화', '#베란다주점', '#광제보고싶네ㅋ', '#술스타그램', '#부부술상']</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>.#대윤가야곡주조 의 #대윤가야곡주.어마어마하다음식과의 찰떡궁합의 상황을 격다.담백한 소고기 수육을 먹고먹다 조금씩 온몸이 느끼느끼해질 때쯤의 한모금의 대유가야곡주가 입안을 후레쉬 하게 해주는  놀라운경험~~느끼한 음식엔 최고의 조합일듯 #술담화 8월술도 칭찬해~</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2020-09-10</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>['#대윤가야곡주조', '#대윤가야곡주.어마어마하다음식과의', '#술담화']</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>.#고흥유자주.기분좋은 유자의 향과 맛알콜도수8도에 적당한 새콤함..맛좋다#술담화 8월술</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2020-09-10</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>['#고흥유자주.기분좋은', '#술담화']</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>오늘도 육퇴! 수고들하셨습니다.#술담화 #고흥유자주 #대구뭉티기 #유자향너무좋음 #식감최고</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2020-09-10</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>목포 우리집♡</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>['#술담화', '#고흥유자주', '#대구뭉티기', '#유자향너무좋음', '#식감최고']</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>갑자기 집 앞에까지 오셔서 서프라이즈하는 쑤진턴배님은 천사입니까?🧝🏻‍♀️🧚🏻‍♀️ #술담화 #오산막걸리 후배사랑🥴 답례로 이것은 운명? 오늘 우연히 산 비건빵🥖🥨 주말에 어쩔 수 없이 한 잔 해야겠군🍶</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2020-09-10</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>['#술담화', '#오산막걸리']</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>오예🥳드디어 도착한 책그리고 수첩이라는 선물😘여행 갈 때 쓰고픈데... 언제 갈 수 있나😂...-20.09.10#술담화 #드렁큰에디터 #책증정이벤트 #당첨</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2020-09-10</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>['#술담화', '#드렁큰에디터', '#책증정이벤트', '#당첨']</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>★☆★커피냑이 독해서 사이다로 희석...😃술에 무엇을 섞어 마사는건 사파인데 ㅋㅋ 술 자체로 마셔야 하는데 늙은듯...😭#집에서#소소한#술상#돼지곱창#동그랑땡#동태전#커피냑#술스타그램#안주#안주스타그램#커피냑#술담화#담화박스</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2020-09-10</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>like</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>우리집</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>['#집에서', '#소소한', '#술상', '#돼지곱창', '#동그랑땡', '#동태전', '#커피냑', '#술스타그램', '#안주', '#안주스타그램', '#커피냑', '#술담화', '#담화박스']</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>#술담화 #고흥유자주 누가 맛있다길래 얼른 마셔보니 진짜 맛있네 ㅎㅎ</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2020-09-10</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>['#술담화', '#고흥유자주']</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>YouTube 산적 TV밥굽남[애주가들에게 바치는 영상] 🥳앞광고 쎄게 때렸습니다.많이 봐주세요:)#술담화 #추석선물 #추석 #술스타그램 #전통주 #선물 #앞광고 #술 #안주 #선물세트</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2020-09-10</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>like</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>['#술담화', '#추석선물', '#추석', '#술스타그램', '#전통주', '#선물', '#앞광고', '#술', '#안주', '#선물세트']</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>저도 술담화를 구독해보았습니다!큐레이션한 전통주를 한달에 한번 배송해주는 서비스에요.예전에 맥주 배송해주던 벨루가가 그립네요. 맥주도 규제가 풀려서 배송이 가능해지면 좋겠습니다.술담화로 전통주 받게되면 전통주도 리뷰해볼게요!🥳#술담화 #전통주</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2020-09-10</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>['#술담화', '#전통주']</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>유자술. 맛도 향도 틀림없는 유자차라해도 가히 틀린말이 아닐듯하다. 하이볼로해서 큰 머그잔에 마시니 전혀 안주가 필요없다. 취기가 은은하게 올라온다. 캬~ 어떻게 이렇게 유자를 담아냈을까? 틈틈히 구매해서 쟁여놔야겠다.#담화박스 카드에 따르면전국 유자 생산량의 43%를 ZF지한다는, #유자로 유명한 전남고흥에서 만들어지는 #유자주입니다. 따뜻한겨울로유명한고흥은겨울이저1철인유차갸 특히 맛있기로유명한데요. 심지어 고흥유자주에 쓰이는유자는30년 이상된 고목에서 자란유자를 쓰는데, 수령이 많은 나무는생산량이 떨어지지만 더 농축된 당도와 풍미를지닌과실을 맺기때문에 더 프리미엄으로 인정받는다고합니다! *따뜻한 햇살과 남해의 해풍을 맞고 자란고흥쌀과 고흥유자로 곱게 자란 유자의 풍미를 느껴보세요! *프랑스메서는 오래된 포도나무에서 자란 포도로 만든 와인을 표시하기 위해 ‘VieillesVignes'라고 라벨에 표기한다고 합니다. #우리술 #전통주 #약주 #고흥유자주08 #녹동양조장 #술담화</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2020-09-10</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>['#담화박스', '#유자로', '#유자주입니다.', '#우리술', '#전통주', '#약주', '#고흥유자주08', '#녹동양조장', '#술담화']</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>9월 담화박스 미리보기👀파!격! 추석이 3주도 채 남지 않은 이 시점, 담화박스 구성을 선공개하는 시간을 마련했습니다.힌트 공개 후 많은 분들이 기대와 예측을 남겨주셨어요. 네! 9월 담화박스는 삼양춘 탁주 약주 청주 시리즈입니다✨1️⃣ 삼양춘 탁주담백한 쌀향과 밸런스가 훌륭하게 잡힌 탁주입니다. 2018 대한민국 주류대상에서 영광의 '대상'을 차지한 술이랍니다.2️⃣ 삼양춘 약주2018 대한민국 주류대상 'Best of Best'를 수상한 술입니다. 고소하고 은은한 곡물향에 '쌀로 만든 화이트와인'이라는 찬사를 받은 술입니다.3️⃣ 삼양춘 청주올해 3월, 삼양춘에서 새롭게 출시한 청주입니다. 살구의 산뜻함과 드라이한 바디감을 가진 이 술은 음식과 함께 마셨을 때 더욱 빛을 발한다고 합니다.풍성한 추석을 담화박스에 다 담아보았습니다. 구성, 어떠셨나요🌝?💡 3종의 술은 모두 냉장보관이 필요한 상품입니다. 이에 9월 담화박스는 스티로폼 박스로 배송될 예정입니다.✔️ 담화박스가 배송되기까지 딱 2주가 남았습니다. 5박스 이상 구매를 원하시는 분들은 카카오톡 플러스친구 [@술담화]로 문의주세요!</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2020-09-10</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>#술담화#담화박스홍삼명주 홍삼맛캔디가 생각난다는.</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2020-09-10</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>ke</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>['#술담화', '#담화박스홍삼명주']</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>퇴근 후 집에서 청귤청 담근 후 모듬회에 홍삼명주 한잔 #탄현동이자키야#마츠노키#맛집#포장#모듬회#술담화#홍삼명주#전통주 체험</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2020-09-09</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>['#탄현동이자키야', '#마츠노키', '#맛집', '#포장', '#모듬회', '#술담화', '#홍삼명주', '#전통주']</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>오징어 볶음과 꿀샘16🐝 ᆢ 꿀맛 조합 🥂ㆍㆍ#냉파주간 #자투리채소와 은미샘 #특제양념#버섯누룩 #고추누룩 #오징어볶음 #맛보장👍 #식재료 #제로웨이스트 #노력중#술담화 #꿀샘16 #리큐르 #후다닥한상#저녁 #일상</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2020-09-09</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>['#냉파주간', '#자투리채소와', '#특제양념', '#버섯누룩', '#고추누룩', '#오징어볶음', '#맛보장👍', '#식재료', '#제로웨이스트', '#노력중', '#술담화', '#꿀샘16', '#리큐르', '#후다닥한상', '#저녁', '#일상']</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>솔이의 보물상자. 장난감 박스 리폼 해줬다🎁 #장난감부자 #갖고놀면치울줄도알아야지#술담화 #고양이그램 #냥스타그램 #캣스타그램 #catstagram</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2020-09-09</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>ke</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>['#장난감부자', '#갖고놀면치울줄도알아야지', '#술담화', '#고양이그램', '#냥스타그램', '#캣스타그램', '#catstagram']</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>😋지난 3개월ㅋㅋ#전통주갤러리 #전통주구독 #술담화 #술담화6월 #술담화7월 #술담화8월 #담화박스 #맛있었다 #술탐구생활 #놀궁리연구생활😝 #amusement_research_life😝</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2020-09-08</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>['#전통주갤러리', '#전통주구독', '#술담화', '#술담화6월', '#술담화7월', '#술담화8월', '#담화박스', '#맛있었다', '#술탐구생활', '#놀궁리연구생활😝', '#amusement_research_life😝']</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>★☆★시작은 #감자채전 이었으나 채써는데 실패하여 감자튀김과 감자부침 사이 어디 저멀리로 떠나버린 요리...맛은 좋음 ㅎㅎ😂 #집에서#소소한#술상#감자#얼갈이김치#깻잎짱아찌#술스타그램#안주#안주스타그램#고흥유자주#술담화#담화박스</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2020-09-08</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>like</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>우리집</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>['#감자채전', '#집에서', '#소소한', '#술상', '#감자', '#얼갈이김치', '#깻잎짱아찌', '#술스타그램', '#안주', '#안주스타그램', '#고흥유자주', '#술담화', '#담화박스']</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>가을이 오면🎶🍂🍁안녕하세요, 술담화입니다. 오늘은 가을을 한 병에 가득 담은 전통주 5병을 소개드립니다😋🌰 풍부한 알밤향으로 가득한 막걸리 : #세종알밤주🌼 가을 국화로 빚은 긴 여운의 과하주 : #술아국화주🍇 유기농 산머루로 만든 레드와인 : #크라테산머루레드와인스위트🌾 다섯 번 빚어 만든 프리미엄 탁주 : #천비향탁주🍎 사과 와인을 증류시켜 만든 한국의 칼바도스 : #추사40아침 저녁으로 서늘한 공기가 느껴집니다. 이른 가을을 맞이하며 술담화와 함께 가을 한 모금 어떠세요?🐿</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2020-09-08</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>['#세종알밤주🌼', '#술아국화주🍇', '#크라테산머루레드와인스위트🌾', '#천비향탁주🍎', '#추사40아침']</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>.꿀샘16(16%)이름부터 꼭 마셔보고 싶게 만드는 술, 꿀샘16!향부터 맛까지 꿀 특유의 특징을 잘 살린 술알콜향에 거부감이 있거나 씁쓸한 술을 잘 즐기지 못하는 분들께 꼭 선물해 보고싶은 술!🍶🍶🍶🍶#꿀샘16 #술리뷰 #술담화 #술담화8월 #꿀주</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2020-09-07</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>['#꿀샘16', '#술리뷰', '#술담화', '#술담화8월', '#꿀주']</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>주말의 즐거움. #술샘16 #콘치즈 #술담화</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2020-09-07</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>ke</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>['#술샘16', '#콘치즈', '#술담화']</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>백순대볶음+오이미역냉국🥒+능이주🍄.능이주 향이 참좋구나~😊.*능이버섯은 깊은 산중 공기가 좋은 곳에서3년에 한번 정도만 채취가 가능한 귀한 버섯으로버섯 중에 으뜸으로 꼽는다.*조선시대 궁중의 의약을 담당하는 관청을 내의원,또는 내국이라 불렀다.그 당시 술은 약용으로 처방되기도 하여내국에서 관리하였는데몸에 좋은 약재와 과실로 술을 빚어왕실의 건강관리에 사용하였다.*능이주는 풀, 꽃, 독특한 향을 품은 능이버섯과쌀로 빚은 술로 은은한 버섯향이평창동계올림픽 개막식 VIP 리셉션 만찬에서한우 스테이크와 곤드레밥과 마리아주로서의조화가 매우 좋았다는 평가를 받았다..#백순대볶음#오이미역냉국#능이주#술담화#하루한끼#집밥</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2020-09-07</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>ke</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>['#백순대볶음', '#오이미역냉국', '#능이주', '#술담화', '#하루한끼', '#집밥']</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>_🍺#고흥유자주🍺⠀•원산지 : #한국•종류 : #살균약주•알코올(ABV) : 8%•감상평 : #유자칵테일같은 #약주지만_청주같은_깔끔함 #8월의_추천술⠀《술담화》 8월의 술 마지막, 고흥유자주 입니다⠀유자보다는 유자차에 가까운 듯한 상큼한 맛⠀고흥유자주는 유자의 맛이 강하지 않다적당히 느껴지긴 하는데 설명보다는 약한 느낌이다내 기억속 과일로 먹는 유자는 정말정말 쓴 맛이 강했는데고흥유자주는 유자의 달달함과 상큼함만 남기고쓴맛은 다 날렸다고 생각될 정도다⠀유자 술은 순하리 소주나 유자사케 정도 마셔봤는데순하리는 소주라서 유자맛에 가장 가까웠던 것 같고유자사케는 유자청을 먹는 듯 단맛이 되게 강했던걸로 기억한다이 고흥유자주는 유자의 단맛과 상큼함만 남아서개인적으로는 고흥유자주가 제일 좋은 것 같다⠀그리고 이번 고흥유자주도 칵테일보다 그냥 마시는게 좋았다고흥유자주는 그냥 마셔도 이미 칵테일 같은 맛이기도 하고무언가랑 섞으면 유자향이 많이 약해져서 아쉬웠다⠀이번 술담화에서 술을 하나 추천하자면 단연 고흥유자주다인위적인 단맛이나 상큼함도 아니었고누룩이 1프로 이상 들어가는 약주라고 했지만거의 청주라고 느껴질만큼 산뜻하고 깔끔했다특히나 유자 사케의 향을 좋아했던 사람들에게는국내에서 쉽게 구할 수 있는 유자 술이라는게가장 큰 장점이 될 듯 싶다_</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2020-09-07</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>['#고흥유자주🍺⠀•원산지', '#한국•종류', '#살균약주•알코올(ABV)', '#유자칵테일같은', '#약주지만_청주같은_깔끔함', '#8월의_추천술⠀《술담화》']</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>_🍺#꿀샘16🍺⠀•원산지 : #한국•종류 : #리큐르•알코올(ABV) : 16%•감상평 : #꿀물 #숙취해소 #달달한_술 #목넘김이_좋은_술⠀《술담화》 8월의 술 두번째, 꿀샘16 입니다⠀술을 마시고 있지만 왠지 숙취가 해소될 것 같은 꿀물 맛 리큐르⠀같이 온 설명지에 적혀있던 것 처럼모르고 마시면 술인지 모를 정도로 알콜향은 거의 없고맛과 향에서 달달한 꿀이 느껴지는 것 말고는크게 특징적인 부분이 거의 없다⠀진짜 꿀물같다고 느낀 부분은 의외로 목넘김이었다꿀물을 마실 때 느껴질법한 몰캉한 느낌 때문인지오히려 칵테일로 마실 때가 더 술같은 느낌이 들었다⠀칵테일 제조법을 따라하면꿀맛도 많이 줄어들고, 그나마 특이한 점인 목넘김도 사라진다좀 더 술을 마신다는 기분이 들긴하지만그냥 흔한 토닉워터맛 칵테일이 되는 느낌이라이번 꿀샘16도 있는 그대로 마시는 편이 더 좋았다⠀술 자체가 되게 약하다는 느낌을 받았다도수가 약하다는게 아니라, 술에서 느껴지는 부분들이전반적으로 좀 약하다는 기분이 든다그래서 간이 센 안주와는 안어울린다고 생각했다특히 달달한 안주를 먹고나면 꿀샘16은 맛이 거의 안느껴지니혹시 먹게된다면 밋밋한 안주들과 먹는편이 좋을 듯 싶다_</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2020-09-07</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>['#꿀샘16🍺⠀•원산지', '#한국•종류', '#리큐르•알코올(ABV)', '#꿀물', '#숙취해소', '#달달한_술', '#목넘김이_좋은_술⠀《술담화》']</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>🎊2020년 술담화 추석 프로모션 안내🎊벌써 추석이 약 3주 앞으로 다가왔습니다. 이제 슬슬 연휴 계획을 세워야 할 시기가 오고 있네요☺️뒤숭숭한 상황에 걱정이 앞서지만, 술 걱정만큼은 잠시 덜어 놓으시길 바랍니다! 추석을 맞이하여 술담화가 힘차게 준비한 프로모션 꼭 확인해주세요🙌✔️ 기간 : 2020.09.07(월) - 09.24(목)✔️ 할인율 : 5% - 25%✔️ 용도🎁 오랜만에 만나뵙는 가족친지분들과의 시간을 앞두고 1병🎁 일상을 함께한 가족 친구 연인과의 뜻깊은 시간을 위해 1병🎁 1년에 한 번! 특별한 날을 기념하기 위한 나만의 선물로 1병🎁 감사를 표하고 싶은 분들께 마음을 전하는 1병 📌 할인율별 상세 정보는 프로필 링크의 술담화 블로그에서 확인하세요!📌 구매는 담화마켓(www.sooldamhwa.com/shop) 에서 가능합니다.술담화와 함께 보름달처럼 가득 찬 추석 준비해보는 것 어떠세요?🌝</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2020-09-07</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>like</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>술이 이래도 되나요? 이건 웅진에서 나오는 숙취해소음료 꿀홍삼을 흡사 마시는 줄 알았어요.이 정도라면 진짜 나발도 불수있을 듯.하지만 자고로 향과 혀를 감싸는 맛을 같이 느껴야하는고로 차마 병나발은 예의가 아니지 싶다.#술담화 자료에 의하면꿀은 항균. 조혈, 해독 등의 작용을 하고. 위와 장의 소화를 도와주며 신경이 예민한 사람들이 숙면을 취할 수 있게끔 도와주는一그야말로 ‘천연 종합영양체'입니다. 그런 국내산 천연꿀이 들어간. 카카오커머스에서 ‘비밀(Bee훔)'로 한정 출시되었던 꿀술의 반응이 좋아 #꿀샘16 으로 다시 재탄생한 앙코르 제품.#우리술 #전통주 #리큐르 #술샘</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2020-09-07</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>['#술담화', '#꿀샘16', '#우리술', '#전통주', '#리큐르', '#술샘']</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>#아는만큼맛있다코로나 19의 장기화로 한정된 생활 반경.이를 보완해주는 정기 구독 서비스가 인기입니다.⠀프리미엄 과일을 구독할 수 있는 #진짜맛있는과일집으로 찾아오는 우리 술 #술담화달콤한 일상 #월간쿠키똑똑한 채소습관 #샐러딩 까지.⠀고급 미식 생활을 영위할 수 있는 특별한 구독 서비스를&lt;행복&gt;이 엄선했습니다.⠀#행복이가득한집 #homelivingkorea #구독 #음식구독 #정기구독 #과일구독 #술구독 #쿠키구독 #채소구독</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2020-09-07</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>like</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>['#아는만큼맛있다코로나', '#진짜맛있는과일집으로', '#술담화달콤한', '#월간쿠키똑똑한', '#샐러딩', '#행복이가득한집', '#homelivingkorea', '#구독', '#음식구독', '#정기구독', '#과일구독', '#술구독', '#쿠키구독', '#채소구독']</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>#술담화 #구독 #추가구매 #인생은술</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2020-09-07</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>ke</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>['#술담화', '#구독', '#추가구매', '#인생은술']</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>뷰맛집.....@jess_ggo 집들이코스요리 만-족종종 찾아가겠다^♡^#집들이 #뷰맛집 #코스요리 #취향저격#떡볶이 #골뱅이무침 #닭꼬치 #콘샐러드 #김볶밥#집들이엔 #술담화 #매실원주#이집서비스좋네👍</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2020-09-06</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>['#집들이', '#뷰맛집', '#코스요리', '#취향저격', '#떡볶이', '#골뱅이무침', '#닭꼬치', '#콘샐러드', '#김볶밥', '#집들이엔', '#술담화', '#매실원주', '#이집서비스좋네👍']</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>#담금주키트 #모히또 #술담화</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2020-09-06</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>ke</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>['#담금주키트', '#모히또', '#술담화']</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>--#주말마무리--뭔가 일요일은 시간이 3.5배쯤 빨리 흐르는것 같다.종일 평일에 먹일 반찬만 만든거 같은데해놓고보면 몇가지 없는거 같고ㅠㅠ전처럼 다같이 외식하는게 불가능하니집에서 다같이 먹는 #샤브샤브 는확실히 더 푸짐하게(고기만2근) 양껏 먹을수 있어 좋지만 식당처럼 수저놓고 나오는 시스템이 아닌게 맘에 안들고누가 운전할건지 눈치게임 안하고 사이좋게 나눠마시는 약주로 다시 일주일을 살아낼 힘을 얻는다.--#일요일끝#술담화#홍삼명주#오징어숙회#홈쿡#집밥#주말스타그램#모도리---참,몇년만에 꺼낸 휴대용버너를 보니(그보다 더 몇년전에 갔던 후쿠오카에서짐스럽게 구지 사왔던 무지의 휴대용버너)참 쓸때없이 부지런하고 쓸때없이 힘을썼구나 싶다..지금은 더 이쁘고 더 아기자기한 버너들이 많은데몇년만 참고 기다렸으면 힘안들이고 원하는걸 샀을텐데ㅋㅋ다시 떠날수 있을까 싶은 요즘,나름 추억이 떠오른다..#지금알고있는걸그때도알았더라면</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2020-09-06</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>['#주말마무리--뭔가', '#샤브샤브', '#일요일끝', '#술담화', '#홍삼명주', '#오징어숙회', '#홈쿡', '#집밥', '#주말스타그램', '#모도리---참', '#지금알고있는걸그때도알았더라면']</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2020.09.04 08:30 PM.금욜 후딱 퇴근하고~안주 포장하고~집에서 전통주 한 잔 🍶🍶🍶🍶.고유 &amp; 소고기 모듬 냉채 !!.코스 요리로 치면 산뜻 하게 시작하는 에피타이저 같은 느낌??.술도 너무 산뜻하고 안주도 겨자 베이스 냉채라 좀 겹칠듯 하지만 넘치는 산미랑 은은한 유자 향이 입안을 금새 깨끗이 씻겨주는 느낌!!.#야매사진가 #shin짱 .#주말 #불금 #전통주 #술담화 #고유 #고흥유자주 #소고기모듬냉채 #일상 #dish #liquor #citrus</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2020-09-06</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>부산 Busan</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>['#야매사진가', '#shin짱', '#주말', '#불금', '#전통주', '#술담화', '#고유', '#고흥유자주', '#소고기모듬냉채', '#일상', '#dish', '#liquor', '#citrus']</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>새로 알게 된 서비스. #술담화우리나라 전통주를 한달에 한번 2-4병 정도 보내준다고 함. 월 39,000원.뭘 받을지는 아직 모름. 랜덤서비스가 은근 설렘.9월 24일에 배송해준다고 함. 기대하고 있음.</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2020-09-06</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>ke</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>['#술담화우리나라']</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>.#애호박새우전#백종원레시피#홍삼명주..정말 오늘은 알콜과 안주를 쉬었어야 했는데 말예욤~ 😅 내일부터 넘나 바쁠것 같은데, 일요일 저녁을 그냥 보내기가 너- 무 아쉬운거..죠.. 👉👈 🙈.정말 머릿속을 스쳐간 수 많은 메뉴들 중에 ㅋㅋ🙄a추가로 사올 것 없이 냉파할 수 있고, 비오는저녁과도 어울리는데, 뭔가 살도 안찔거 같은  ㅋㅋㅋ 애호박전으로 ㅋㅋ 소소..하게 마무리해요. .8월 술담화 박스 마지막 전통주 #홍삼명주 가 저를 부르네요? 홍삼의 쓰고 단맛 그리고 발효된 산미감이 담백하거나 씁쓸한 음식과 잘 어울인다고 해요 📝삼계탕,보쌈 뿐만 아니라, 파전,녹두전과도 잘 어울린다구요🙌.물론 애호박전은 달큰한 맛이 강하지만,내일이 월요일이라는 사실에 입맛이 씁쓸하니까 ... 사실 일요일저녁이라는 것이 굿페어링인듯 해욤 😭 ㅋㅋㅋㅋㅋㅋ.홍삼침출주가 아니라 홍삼발효주인 만큼,저 진짜 오늘은 건강하게 먹은거 같아요☺️..(아아, 그럼에도..며칠 피드 좀 쉬어야게써요 ㅋㅋㅋㅋㅋ 🐽🐖🐷) .꿀꿀꿀~ 꿀꿀꿀꿀꿀~~~🙋‍♀️(인님들~ 굿밤되세요~~~)..#혼술#혼밥#혼술녀#집혼술#프로혼술러#우리집#술안주#안주요리#먹스타그램#술스타그램#혼술스타그램#혼밥스타그램#요리스타그램#데일리#직장인#일상#퇴근후한잔#아재술상#전통주#14도#술담화#담화박스#찾아오는인생술#불일#주말</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2020-09-06</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>like</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>['#애호박새우전', '#백종원레시피', '#홍삼명주..정말', '#홍삼명주', '#혼술', '#혼밥', '#혼술녀', '#집혼술', '#프로혼술러', '#우리집', '#술안주', '#안주요리', '#먹스타그램', '#술스타그램', '#혼술스타그램', '#혼밥스타그램', '#요리스타그램', '#데일리', '#직장인', '#일상', '#퇴근후한잔', '#아재술상', '#전통주', '#14도', '#술담화', '#담화박스', '#찾아오는인생술', '#불일', '#주말']</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>고흥유자주와 그릭요거트를 얹은 연어 #안주페어링 #우리술 #마리아쥬 #고흥유자주 #술담화 #연어회 #그릭요거트</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2020-09-06</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>['#안주페어링', '#우리술', '#마리아쥬', '#고흥유자주', '#술담화', '#연어회', '#그릭요거트']</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>#꿀샘16 #꿀샘 #칵테일 #술 #술담화 #술레임 #전통주 #술레이는_전통주 #술스타그램 #인술타그램술담화 구독으로 받아본 전통주 꿀샘16얼음을 넣은 잔에 토닉워터 4: 꿀샘 6  비율로 먹었다그렇게 강하지도 않고 너무 달지도 않아서남성분이더라도 가볍게 괜찮고,여성분들은 더욱 좋아할만한 맛이었다.내점수ㅡ맛ㅡ ●●●●●●●●○○가성비 ●●●●●●○○○○</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2020-09-06</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>['#꿀샘16', '#꿀샘', '#칵테일', '#술', '#술담화', '#술레임', '#전통주', '#술레이는_전통주', '#술스타그램', '#인술타그램술담화']</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>[술담화 - 8월 담화박스]꿀샘16, 고흥유자주, 홍삼명주이렇게 세개의 전통주로 이루어진 8월 담화박스 냠냠 후기! 글이 길어질 것 같아네이버 블로그따리에 올려뒀읍니당🤔관심있으신분들은 고고띡(내돈주고 사무근 후기임ㅠ)https://blog.naver.com/conchiholic/222081959205#술담화 #전통주 #8월담화박스 #내돈내산후기 #술스타그램</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2020-09-06</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>['#술담화', '#전통주', '#8월담화박스', '#내돈내산후기', '#술스타그램']</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>부추전+우렁이쌀청주🐚🍶.백쌤 레시피참고한 잔디밭스탈 부추전...보리새우없어서 밥새우+새우가루 넣어 굽굽...부추향 솔솔 건강해지는향🌿보리새우넣고 다시한번 구워봐야지~🦐.우렁이농법으로 지은 우렁이쌀🌾우렁이쌀+찹쌀 두가지로 만드셨네...향이 참좋으다~👍.펭수가 지나번 농활 에피에서 나온게...우렁이 농법이였구나 ㅎ논에서나는 풀은 우렁이 밥이지만...밭에서나는 부추는 우리 밥이네 ㅋ.제초꾼 우렁이는 채식대식가~ㅋ앞으로도 많은활약  부탁👏.#부추전#새우부추전#우렁이쌀청주#앙촌양조장#술담화#하루한끼#집밥#집간식</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2020-09-06</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>['#부추전', '#새우부추전', '#우렁이쌀청주', '#앙촌양조장', '#술담화', '#하루한끼', '#집밥', '#집간식']</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>토요일 집에서 외식 샤브샤브와 전통주 칵테일 한잔 달콤하다  맛집#샤브샤브#고흥유자#술담화#정기구독#칵테일#달콤함</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>['#샤브샤브', '#고흥유자', '#술담화', '#정기구독', '#칵테일', '#달콤함']</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>꿀'주님'께 정말 은혜 얻었습니다워낙 쓴술 , 쓴커피만 좋아하며 살아왔지만부드러운 목넘김 그후 은은하게 퍼지는 꿀향..꿀'주님'은 정말 맛이좋습니다 🙈#술담화 #전통주 #꿀샘 #첫주반응</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>독립문</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>['#술담화', '#전통주', '#꿀샘', '#첫주반응']</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>오늘하루도 고생많으셨습니다 ~!오늘은 쀼전이자카야 느낌으로다가 ~꿀'주님' 꿀샘과 함께 하겠습니다 기분좋게 맛보겠습니다 🙈고맙습니다 감사합니다 🙈#애인 #야식 #야끼멘타이코 #명란구이#연어사시미 #골뱅이소면 #요리스타그램 #술담화 #꿀샘 #전통주 #술스타그램</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>like</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>독립문</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>['#애인', '#야식', '#야끼멘타이코', '#명란구이', '#연어사시미', '#골뱅이소면', '#요리스타그램', '#술담화', '#꿀샘', '#전통주', '#술스타그램']</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>취직하고 맞은 첫 금밤.주말을 앞둔 금요일밤도,순대굿에 혼술소주 한잔도세상 이리 꿀맛!..다음엔 미리미리 혼술용 전통주 구비해 놔야지~최근 알게 된 술 토막이 궁금하고(라벨이 예쁘던데)훌쩍 다가온 가을에 어울리는 건 뭐가 좋을까술담화 구독이 가장 쉬우려나#코로나일상 #혼술 #홈술 #소주엔 #순댓국 #금밤 #토막 #토란막걸리 #술담화</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>['#코로나일상', '#혼술', '#홈술', '#소주엔', '#순댓국', '#금밤', '#토막', '#토란막걸리', '#술담화']</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>.#닭목살구이#구운채소#꿀샘16..친구가 고기먹고 몸보신하랬는데,전 진짜 고기를 구워먹으면 벌크업 단계에 들어설거 같았어요? 🙄a.오랫동안 냉동실에서 자고있던 닭목살을 꺼내서 (잘잤니?)돼지갈비양념에 재워뒀다 굽구😀,각종채소들 냉파해서 구워 사이드로 차렸어요 😚😗.닭목살은 안먹어본 사람은 있어도, 한번만 먹어본 사람은 없을걸여????치킨 먹을때 목부위 안먹는 사람들도, 요 닭목살을 맛보면 눈이 번쩍 뜨이고 닭목을 다시보게 될꼬애오 🐔🐓 #닭아고마워..꿀샘16은 완젼 꿀물입니다.😳16도라는 도수가 믿기지 않을 정도로 해장용 꿀물을 마시는거 같은데... 🤣🤣🤣이거 위험하네요 ㅋㅋㅋㅋㅋ드링킹위험지수🔝한병만 있어서 다행.(허나 신에게는 새로사온 진로한박스가 차 트렁크에 있습니드..).목살구이, 족발, 피자 등에 잘 어울린다고 하는데, 닭목살도 목살이니 ㅋㅋㅋㅋ 굿페어링인듯도요 😉 그..그쵸?..인님들은 오늘 뭐 맛난거 먹으면서 불토보내고 계신가~ 구경해봐야겠네요! 편안한 밤 되세용 🙋‍♀️..#혼술#혼밥#혼술녀#집혼술#프로혼술러#우리집#술안주#안주요리#먹스타그램#술스타그램#혼술스타그램#혼밥스타그램#요리스타그램#데일리#직장인#일상#퇴근후한잔#아재술상#전통주#16도#술담화#담화박스#찾아오는인생술#불토#주말</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>like</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>['#닭목살구이', '#구운채소', '#꿀샘16..친구가', '#닭아고마워..꿀샘16은', '#혼술', '#혼밥', '#혼술녀', '#집혼술', '#프로혼술러', '#우리집', '#술안주', '#안주요리', '#먹스타그램', '#술스타그램', '#혼술스타그램', '#혼밥스타그램', '#요리스타그램', '#데일리', '#직장인', '#일상', '#퇴근후한잔', '#아재술상', '#전통주', '#16도', '#술담화', '#담화박스', '#찾아오는인생술', '#불토', '#주말']</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>얼음 잔뜩 넣고 토닉워터 꼴꼴꼴 부어준 후 홍삼명주 올린 내 멋대로 칵테일혼술 좋지만 슬슬 밖에서 마시고 싶다코로나 우리 그만 헤어지자...#8월의술담화 #술담화 #홍삼명주 #그냥먹어도맛있지만이렇게먹으면진짜술술넘어간다</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>['#8월의술담화', '#술담화', '#홍삼명주', '#그냥먹어도맛있지만이렇게먹으면진짜술술넘어간다']</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>집에서 #계림닭도리탕 조져보리깅!!!!오늘의 술은#술담화 8월 상자#고흥유자주 되겠습니당 🥂유자주 + 얼음 + 탄산수 따악 해서한모금 꼴깍 하면 이거슨유자의 신세계 ㅠㅠㅠㅠㅠ최고야 사랑해♥︎ 그뒤에 칼칼한 마늘향나는 닭도리탕 국물따악 먹고쭨득한 밀떡까지 따악 조져주면수고링🥰#전통주 #전통주스타그램</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>['#계림닭도리탕', '#술담화', '#고흥유자주', '#전통주', '#전통주스타그램']</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>_🍺홍삼명주🍺⠀•원산지 : #한국•종류 : #발효주•알코올(ABV) : 14%•감상평 : #1년치_홍삼_다먹었다 #다같이_한잔씩 #소주잔에_조금씩《술담화》 8월의 술 첫번째, 홍삼명주 입니다마시는 내내 건강해지는 기분이 들었고그래서 아주 맛있는 술이라고는 못하겠다병을 개봉하고 향 맡아보니가볍고 달달한 홍삼향과 약간의 약주 향이 올라오면서술빵이나 술떡에서 맡아본적 있는 고소한 술냄새가 났다향이 맘에 들어서 바로 따라서 마셔봤는데첫 맛은 달달한 홍삼주스 같다가시간이 지날수록 짙은 홍삼향이 입 안에서 계속 퍼져나갔다건강 기능 식품만큼의 맛과 향은 아니지만꽤나 선명한 흙내음과 홍삼향이라고 느껴졌다몇 잔 마시고 나서는동봉된 칵테일 레시피대로 막걸리를 섞어 봤다선명했던 홍삼향과 맛이 누그러지면서고소한 견과류 맛처럼 느껴지긴 했지만 맛이 따로 노는 느낌이었다그래서 그냥 있는 그대로 마시는 편이 더 좋았다맛없는 술은 절대 아니다오히려 대중적으로 어필할 수 있을만큼 타협한 느낌이 든다그러나 홍삼 향이 강하지는 않아도 선명하게 느껴지고약주 느낌을 지울 수는 없어서 한 번에 많이 마시기도 힘들다그리고 세상엔 정말로 맛있는 술이 많기 때문에홍삼명주를 찾게된다면, 술마시며 건강을 챙긴다는 핑계를 댈 것 같다_</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>['#한국•종류', '#발효주•알코올(ABV)', '#1년치_홍삼_다먹었다', '#다같이_한잔씩', '#소주잔에_조금씩《술담화》']</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>_#고흥유자주 #페어링 이고 나발이고 #병나발 #어떤하루 #08#술담화 🤪🤪🤪#l4l #f4f</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>['#고흥유자주', '#페어링', '#병나발', '#어떤하루', '#08', '#술담화', '#l4l', '#f4f']</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>#바이부처스#육회#브런치#술담화#우렁이쌀#짜파구리#채끝짜파구리 #치즈#홈쿡#집밥스타그램#자취</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>['#바이부처스', '#육회', '#브런치', '#술담화', '#우렁이쌀', '#짜파구리', '#채끝짜파구리', '#치즈', '#홈쿡', '#집밥스타그램', '#자취']</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>#혼자놀기 #yolo#흔한 #냉장고 #셀러괜한 #뿌듯함비가 하루종일 내림.빨래가 안마름.오늘은 비오니까,짬뽕에 꿀주를...#술담화 #선물받은담금주 #딸기주잘 먹겠습니다. 외숙모~😍본가에 있는데, 가져와야겠다능ㅋ#일상이여행 #일상스타그램 #직장인스타그램 곧 잠시 며칠 #백수 예정...올해 진짜 똥밟았다 생각한다.대보라는 똥...</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>['#혼자놀기', '#yolo', '#흔한', '#냉장고', '#셀러괜한', '#뿌듯함비가', '#술담화', '#선물받은담금주', '#딸기주잘', '#일상이여행', '#일상스타그램', '#직장인스타그램', '#백수']</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>#다이어트하면뭐하겠노 #술안주사묵겠지 #뭉티기 #연어회 #직접썰음 #바다베개 #고흥유자주 #술담화 #유자주합격</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>['#다이어트하면뭐하겠노', '#술안주사묵겠지', '#뭉티기', '#연어회', '#직접썰음', '#바다베개', '#고흥유자주', '#술담화', '#유자주합격']</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>블랙타이거 새우구이🦐+소고기버섯잡채🍄(Giant tiger prawn)+고흥유자주🍊.블랙이 레드로 변하는 마법도 보고...'당신의 어떤하루가 조금더 특별하길'바라는 편지도 받고...미역국+잡채+케이크 생일삼종 쎗뚜까지...잘먹었으니....5️⃣0️⃣知天命이라...남편님~이제 하늘의뜻만 찾으심되겠다...열심히 보물찾기start~😄*그나저나 블랙타이거새우 수요가 늘어서'맹그로브(mangrove)'가 파괴된다는데😔.*잡채는 17세기 조선시대의 광해군 재위 시절, 궁중연회에서 처음 선보인 것으로 알려져 있다. 광해군이 총애하던 이충이라는 사람이 특별한 음식을 만들어 궁중에 바치곤 했다는데, 만들어오는 음식이 얼마나 맛이 있었던지 임금이 식사 때마다 이충의 집에서 오는 음식을 기다렸다가 수저를 들곤 했다는 기록이 남아 있을 정도다. 그중에서도 특별히 임금의 입맛을 사로잡았던 음식이 바로 잡채다.*잡채의 '잡(雜)'은 섞다, 모으다, 많다는 뜻을 담고 있다. '채(菜)'는 채소를 뜻한다. 잡채는 여러 채소를 섞은 음식이란 뜻이다. 당면이 들어간 요즘 형태의 잡채는 1919년 황해도 사리원에 당면공장이 처음 생기면서 시작되었고 본격적으로 먹기 시작한 것은 1930년 이후부터라고 한다..#블랙타이거새우구이#GiantTigerPrawn#소고기버섯잡채#고흥유자주#술담화#생일상#생파#하루한끼#집밥</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>['#블랙타이거새우구이', '#GiantTigerPrawn', '#소고기버섯잡채', '#고흥유자주', '#술담화', '#생일상', '#생파', '#하루한끼', '#집밥']</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>오늘은불금이니깐 한병마실계획이였는데...신나서 한병더 #술담화 #딥슬립</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>우리집</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>['#술담화', '#딥슬립']</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>안녕하세요, 술담화입니다🍶 오늘은 레디큐와 함께 숙취해소제에 대해 알아보는 시간을 마련했습니다🙂🙋‍♀️: 레디큐에 함유된 커큐민 성분은 무엇인가요?👩‍🏫: 숙취해소에 좋은 물질로, 슈퍼푸드 강황에서 추출한 성분입니다. 레디큐에는 헛개도 함유되어 있답니다!🙋: 숙취해소제는 언제 먹어야 하나요?🧑‍🏫 : 𝗥𝗘𝗔𝗗𝗬-𝗤 이름에 답이 있습니다. 음주 전! 30분-1시간을 두고 드세요. 더 강한 효과를 원하시면 음주 후에도 1병 섭취해주세요.🙋‍♂️: 더 맛있게 마시는 방법이 있나요?👨‍🏫: 얼음컵에 가득 따라 시원하게 즐겨주세요. 외부에서 드신다면 편의점 얼음컵을 추천드립니다. 💡맛있는 전통주를 더욱 건강하고 오래 즐길 수 있는 건강관리! 레디큐 숙취해소제와 함께 시작해보세요🙂💡추가로! 문자 수신에 동의하신 분들에 한해 &lt;드링크 탐구생활 설문조사&gt; 링크를 전송드렸습니다. 많은 참여 부탁드립니다🙌🙌</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>#200904 #8월 #양미포차 #open #레이디스데이👩🍻 #폭식데이🐷 #술담화 술이 있었는데 없어졌어요🤔</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>['#200904', '#8월', '#양미포차', '#open', '#레이디스데이👩🍻', '#폭식데이🐷', '#술담화']</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>#시트러스 #혼디주 #술담화 #혼디주_혀놔음 술린이 2n년차... 12도 감귤 과실주를 두 번에 걸쳐 마시고도 아직 반이나 남았다😅 음식과 함께 기록하는 전통주 기록 시작-처음 이 술을 마셨을 때는 늦은 밤, 달큰한 애호박전 냄새를 참지 못했을 때였다. 담백하면서 달큰한 애호박전은 상큼한 감귤맛의 드라이한 혼디주와 안성맞춤이다💗두 번째로 함께한 음식은 명란 알리오올리오였다. 혼디주와 알리올리의 조합은 꽤나 훌륭할 것이라 예상했지만... 하하... 아니었다. 알리오올리오에 온갖 매운 청양고추와 마늘, 페퍼로치니를 때려박았기 때문이다🧄🌶 오우... 매운 음식과 함께 마시는 혼디주는 꽤나 고통스럽다. 드라이한 맛이 한층 더 쓰게 느껴진다.흠 지금 기세로 봤을 때 남은 혼디주에 적어도 세가지 음식은 더 페어링을 할 수 있을 것 같다. 더 많은 음식과 먹어보고 오리다💫</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2020-09-04</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>ther</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Gunpo</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>['#시트러스', '#혼디주', '#술담화', '#혼디주_혀놔음']</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>#훈제오리 #꿀샘16 #술담화토요일 출근 시르당 얼른먹고 자야지 🥱</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2020-09-04</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>['#훈제오리', '#꿀샘16', '#술담화토요일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>#불금지방을 태우고 꿀빠는 시간#술담화 #술구독서비스 #꿀샘16 안주는#과카몰리샌드위치 #러브개런티드</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2020-09-04</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>['#불금지방을', '#술담화', '#술구독서비스', '#꿀샘16', '#과카몰리샌드위치', '#러브개런티드']</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>술을 보고 내 생각이 났다는 우리 정으니 @run_jeje 와 날 좋은 날 #광교호수공원 에서 행복한 저녁🥂한번 싸우기도 하고 오래 못보기도 했는데 이렇게 다시 만나게 되어 반갑고 뭔가를 보고 내 생각을 떠올렸다는 것이 참 고맙다덕분에 행복한 금요일 저녁🤗오래오래 친구하자#그와중에 #족발핵맛 #어리굴젓최고 #술담화 #구독술 #꿀맛 #오늘도행복한 #써니하우스☀️</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2020-09-04</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>['#광교호수공원', '#그와중에', '#족발핵맛', '#어리굴젓최고', '#술담화', '#구독술', '#꿀맛', '#오늘도행복한', '#써니하우스☀️']</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>#술담화 #꿀샘16 #고흥유자주 #홍삼명주 #인생행복 #코로나라도술먹을수있다 #쪽갈비 #대패삼겹살 #육회</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2020-09-04</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>['#술담화', '#꿀샘16', '#고흥유자주', '#홍삼명주', '#인생행복', '#코로나라도술먹을수있다', '#쪽갈비', '#대패삼겹살', '#육회']</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>20.09.04..눈누난나 골뱅이소면에 ‘서울의 밤’ 한 잔,토닉워터 섞어 한 잔,차갑게 한 잔, 미지근하게 한 잔 JMT..#골뱅이소면 #서울의밤 #토닉워터#밤토닉 #술담화 #sooldamhwa #혼술 #혼술안주 #혼술스타그램</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2020-09-04</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Anyang, Kyonggi-Do, Korea</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>['#골뱅이소면', '#서울의밤', '#토닉워터', '#밤토닉', '#술담화', '#sooldamhwa', '#혼술', '#혼술안주', '#혼술스타그램']</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>현숙소라우렁쌈밥🦆+녹파주🍶동네 쌈밥집 배달가능👍 ㅋ.남편님~8월31일자로 10년 축하합니다~🎉10년이니 강산이 한번 변했네(어디가 바뀌었나 두리번두리번ㅋ😆).무언가 기념할때 술이 빠질수없지...푸른채소 쌈밥과 푸른파도 술~크~흐 너무 맛나다....푸른구름의 꿈으로...돈버는일이 힘들때...맛난 술 사먹을 생각으로...앞으로 딱10년만 버텨주시오~🙏항상 감사합니다^^.그나저나 10년후엔 어떻게 먹고살지?😌.*녹파주는 우리나라 최초로 발간된요리책인 [산가요록]에 실려있던 고려시대 대표주이다.잔에 담긴 모습이 마치 거울에 비친 푸른 파도같이 맑다 하여녹파주란 이름이 붙여졌다..*우리나라에서 가장 오래된 요리 전문서는 2000년까지만 해도『수운잡방(需雲雜方)』으로 알려져 있었다. 그런데 2001년 청계천8가 고서점 폐지 더미 속에서『산가요록(山家要錄)』이 발견되면서  그 기록은 깨졌다..#쌈밥#우렁쌈밥#10주년기념일#녹파주#청주#푸른파도술#술담화#하루한끼#집밥#집에서먹었으니집밥</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2020-09-04</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>['#쌈밥', '#우렁쌈밥', '#10주년기념일', '#녹파주', '#청주', '#푸른파도술', '#술담화', '#하루한끼', '#집밥', '#집에서먹었으니집밥']</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>혼술.일하며 찌질해지는 날.#한잔술 로 위로하자.#술담화 #전통주</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2020-09-04</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>['#한잔술', '#술담화', '#전통주']</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>레써피대로 못마셔서 ㅜㅠ얼음만 사오고 토닉워터, 탄산수를 안사서 속상하네고흥유자주 유자향이 짙었던 달큰한#고유 #고흥유자주 #고흥 #유자주 #술담화 #8% #500ml #유자#어떤하루퇴근 후 마시는 달큰한 술은 적당히 나른하게 하고 기분 좋게 만든다.남은 술는 아버지랑 마셔야겠다.챙겨가야지🤗#탕수육 #추천 #추천안주 #페어링 #추천👍</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2020-09-04</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>['#고유', '#고흥유자주', '#고흥', '#유자주', '#술담화', '#8%', '#500ml', '#유자', '#어떤하루퇴근', '#탕수육', '#추천', '#추천안주', '#페어링', '#추천👍']</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>&lt;8월 술담화 담화박스&gt;⠀뜨거운 햇살과 비바람에 지친 몸을 회복 시켜줄 3가지 술⠀- 고흥유자주 (8%)유자로 유명한 전남 고흥에서 만들어 지는 유자주이다. 30년 이상된 고목에서 열린 유자를 사용하여 농축된 풍미와 당도를 가지고 있는 술이다.⠀- 홍삼명주 (14%)충남 괴산에서 4년근 홍삼을 효모와 함께 발효시켜 만든 술이다. 인삼주와 같은 대부분의 침출주와는 다르게 세계최초로 발효시켜 만든 홍삼주이다.⠀- 꿀샘16 (16%)국내산 천연꿀이 들어간 술이다. '비밀'로 한정 출시되었다가 반응이 좋아 재탄생한 제품이다.⠀- CJ 비비고칩 김부각바삭한 김과 고소한 현미가 만난 김부각- 레디큐 커큐민과 헛개추출물이 들어간 망고맛 숙취해소제⠀#술담화 #담화박스 #8월술담화#8월담화박스 #고흥유자주 #홍삼명주 #꿀샘16 #비비고칩김부각 #비비고칩 #레디큐 #숙취해소제</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2020-09-03</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>['#술담화', '#담화박스', '#8월술담화', '#8월담화박스', '#고흥유자주', '#홍삼명주', '#꿀샘16', '#비비고칩김부각', '#비비고칩', '#레디큐', '#숙취해소제']</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>#8월담화박스 한주에 하나씩 어울리는 안주에 먹어보는 중❣ 홍삼명주엔 보쌈이 찰떡👌#전통주#8월담화#술담화#담화박스#찾아오는인생술#커플취미생활#홍삼명주</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2020-09-03</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>['#8월담화박스', '#전통주', '#8월담화', '#술담화', '#담화박스', '#찾아오는인생술', '#커플취미생활', '#홍삼명주']</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>공부해서 남주나?!?!물론 술을 그렇게 좋아하는 편은 아니지만...공부해야지!!!맛있는 술 있으면 가끔 매뉴에 넣어줄께요 ㅎㅎ#대한사 #공부 #술공부 #전통주 #술담화 #술담화구독#천안핫플레이스 #천안맛집 #천안술집 #한우 #한우투뿔#no1 #맛집 #능력자 #사장 #주방장 이 있는곳 #육회맛집 #닭발맛집 #술집 #술 #안주 #전문점 #구성동 #핫플레이스 #먹스타그램 #맛집스타그램 #신불당 #두정동 말고 #구성동 다양한 #이벤트 진행중 #객</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2020-09-03</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>['#대한사', '#공부', '#술공부', '#전통주', '#술담화', '#술담화구독', '#천안핫플레이스', '#천안맛집', '#천안술집', '#한우', '#한우투뿔', '#no1', '#맛집', '#능력자', '#사장', '#주방장', '#육회맛집', '#닭발맛집', '#술집', '#술', '#안주', '#전문점', '#구성동', '#핫플레이스', '#먹스타그램', '#맛집스타그램', '#신불당', '#두정동', '#구성동', '#이벤트', '#객']</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>#곱창파는청년들 #곱창#꼬들살#김치찌개#술담화#해산물파스타#화이트와인 #진로#대창#점심#확찐자1일#시작#자취스타그램#홈쿡 #집밥</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2020-09-03</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>['#곱창파는청년들', '#곱창', '#꼬들살', '#김치찌개', '#술담화', '#해산물파스타', '#화이트와인', '#진로', '#대창', '#점심', '#확찐자1일', '#시작', '#자취스타그램', '#홈쿡', '#집밥']</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>🔊오늘은 술담화로 들어온 상은님의 사연을 소개합니다. ❝ 안녕하세요. 매월 전통주 정기모임을 갖고 있는 '배품'의 정상은입니다. 8월 정모에서 꿀샘16으로 새로운 칵테일을 제조했어요. 술담화 구독자님들께도 소개드리고 싶은 마음에 제보를 드립니다. 레시피 개발은 오세민 회원님께서 힘써주셨다는 말을 이자리에서 덧붙이고 싶습니다.'달티'라고 이름 붙인 이 칵테일은 밤하늘의 달을 레몬 슬라이스로, 별을 스타아니스로 형상화한 칵테일입니다🌛⭐️정성 가득한 칵테일을 함께 만들고 대화를 나누는 시간 속에서 즐거움에 취하는 모임이었다는 말로 소감을 전합니다🍸❞술담화로 모임을 꾸리신다는 소식에 팀원들 모두 깜짝 놀랐던 사연이었습니다. 술담화와 함께 소소한 일상에 특별한 재미를 추구하시는 분들의 사연을 알려주세요! 언제든 환영입니다🙂</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2020-09-03</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>전통주 구매사이트 #술담화 에서 추석전까지 오산양조 전제품 10%할인합니다. 더구나 #오산막걸리 제품은 5+1 중복행사까지...~^^많은 이용 부탁드려요~#오산양조#전통주#막걸리#독산#오매백주</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2020-09-03</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>['#술담화', '#오산막걸리', '#오산양조', '#전통주', '#막걸리', '#독산', '#오매백주']</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>#술담화 를 마시기 위해 안주를 요리하는 우리🥂다소 푸짐한 안주🙆🏻‍♀️🙆🏻‍♂️❤️</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2020-09-03</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>['#술담화']</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>술담화 배달 상품 녹파주(15%)고려시대 선비들이 즐겼던 전통약주정종의 익숙한 향크게 달지 않고 곡물 특유의 향이 난다반주용으로 적당하지만 과일과 어울렸다내 스타일은 아닌듯🍶🍶#아무술리뷰 #술담화 #전통주리뷰</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2020-09-02</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>ke</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>['#아무술리뷰', '#술담화', '#전통주리뷰']</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>오늘 드디어 뜯었다!!!! 기름기 많은 고기랑 마시면 깔끔하게 잡아주는 맛이 일품이다. 생각보다 덜 달고 상큼해서 좋았다. 술이 약한 친구들에게 선물하면 좋을 듯. #고흥유자주 #술담화 #술스타그램 #전통주 #전통주스타그램 #집콕</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2020-09-02</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>ike</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>['#고흥유자주', '#술담화', '#술스타그램', '#전통주', '#전통주스타그램', '#집콕']</t>
         </is>
       </c>
     </row>
